--- a/data/pca/factorExposure/factorExposure_2018-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07287631173889336</v>
+        <v>0.04856312715173794</v>
       </c>
       <c r="C2">
-        <v>0.05729304190616132</v>
+        <v>0.001591423398460522</v>
       </c>
       <c r="D2">
-        <v>-0.07265488509746401</v>
+        <v>-0.02142254588206772</v>
       </c>
       <c r="E2">
-        <v>0.01240195970158211</v>
+        <v>-0.01726203330746861</v>
       </c>
       <c r="F2">
-        <v>0.1352931782942418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0379611779508594</v>
+      </c>
+      <c r="G2">
+        <v>0.107102307583891</v>
+      </c>
+      <c r="H2">
+        <v>0.06864247573029165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1999097449016511</v>
+        <v>0.1227385090354068</v>
       </c>
       <c r="C3">
-        <v>0.001251699114299908</v>
+        <v>-0.04388696947227338</v>
       </c>
       <c r="D3">
-        <v>-0.1399848169495941</v>
+        <v>-0.05164595017257442</v>
       </c>
       <c r="E3">
-        <v>0.05871046892314843</v>
+        <v>-0.009630587363547138</v>
       </c>
       <c r="F3">
-        <v>0.3692315397036806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.00156727784740716</v>
+      </c>
+      <c r="G3">
+        <v>0.3489950055183318</v>
+      </c>
+      <c r="H3">
+        <v>0.2420393333097628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06462581394102318</v>
+        <v>0.05608832393513886</v>
       </c>
       <c r="C4">
-        <v>0.0319136235295408</v>
+        <v>-0.005812707818010447</v>
       </c>
       <c r="D4">
-        <v>-0.05413456327057611</v>
+        <v>-0.03208726079869923</v>
       </c>
       <c r="E4">
-        <v>0.05701349288048257</v>
+        <v>0.01686871348525631</v>
       </c>
       <c r="F4">
-        <v>0.06067572946421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06254989116201119</v>
+      </c>
+      <c r="G4">
+        <v>0.06010173500239947</v>
+      </c>
+      <c r="H4">
+        <v>0.02583902408056504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.006764962139146651</v>
+        <v>0.0326531495445687</v>
       </c>
       <c r="C6">
-        <v>0.003803801483343595</v>
+        <v>-0.00217135651859657</v>
       </c>
       <c r="D6">
-        <v>-0.002122110162266875</v>
+        <v>-0.01623906567733286</v>
       </c>
       <c r="E6">
-        <v>-0.004170654397011878</v>
+        <v>0.00338803884882268</v>
       </c>
       <c r="F6">
-        <v>0.001955951941499138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02482872461936531</v>
+      </c>
+      <c r="G6">
+        <v>0.01118820453605513</v>
+      </c>
+      <c r="H6">
+        <v>-0.03084074862742382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02893174297703544</v>
+        <v>0.02666993781970208</v>
       </c>
       <c r="C7">
-        <v>0.02448156997466828</v>
+        <v>-0.002533309638479471</v>
       </c>
       <c r="D7">
-        <v>-0.04414208644209349</v>
+        <v>-0.004154685000907096</v>
       </c>
       <c r="E7">
-        <v>0.01185259220836907</v>
+        <v>0.03501914601787309</v>
       </c>
       <c r="F7">
-        <v>0.07249568269961178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02936859281855237</v>
+      </c>
+      <c r="G7">
+        <v>0.05121472138059054</v>
+      </c>
+      <c r="H7">
+        <v>0.04359199127488213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03622554389573112</v>
+        <v>0.01163129840661837</v>
       </c>
       <c r="C8">
-        <v>0.004283102735944451</v>
+        <v>-0.005904617074038153</v>
       </c>
       <c r="D8">
-        <v>-0.04557525120394969</v>
+        <v>-0.03359922079598063</v>
       </c>
       <c r="E8">
-        <v>0.04873142400192527</v>
+        <v>0.01197084954283046</v>
       </c>
       <c r="F8">
-        <v>0.08551507913236915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02884294773397763</v>
+      </c>
+      <c r="G8">
+        <v>0.07107679030669939</v>
+      </c>
+      <c r="H8">
+        <v>0.05239317019861771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05277543533837003</v>
+        <v>0.04408037495314449</v>
       </c>
       <c r="C9">
-        <v>0.02948479965618027</v>
+        <v>-0.007913394483317952</v>
       </c>
       <c r="D9">
-        <v>-0.03770196724745031</v>
+        <v>-0.02234354005431318</v>
       </c>
       <c r="E9">
-        <v>0.06342831473733009</v>
+        <v>0.017022191805108</v>
       </c>
       <c r="F9">
-        <v>0.06057562096610103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04282633928568928</v>
+      </c>
+      <c r="G9">
+        <v>0.07675005202391727</v>
+      </c>
+      <c r="H9">
+        <v>0.02787863424693104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03334013641016881</v>
+        <v>0.05211611777291301</v>
       </c>
       <c r="C10">
-        <v>0.0724724937869773</v>
+        <v>-0.01584192591697898</v>
       </c>
       <c r="D10">
-        <v>0.1088755047029878</v>
+        <v>0.1541501518932008</v>
       </c>
       <c r="E10">
-        <v>-0.09520640413910698</v>
+        <v>-0.02195696404268244</v>
       </c>
       <c r="F10">
-        <v>0.0775233750920325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06725057161164426</v>
+      </c>
+      <c r="G10">
+        <v>0.04344087626424328</v>
+      </c>
+      <c r="H10">
+        <v>0.0263863376425051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04530423467340312</v>
+        <v>0.03186910928991729</v>
       </c>
       <c r="C11">
-        <v>0.008039324722087623</v>
+        <v>-0.01646035634926053</v>
       </c>
       <c r="D11">
-        <v>-0.0309084705021959</v>
+        <v>-0.02942889638135848</v>
       </c>
       <c r="E11">
-        <v>0.01501000557787796</v>
+        <v>-0.004679392254529976</v>
       </c>
       <c r="F11">
-        <v>0.03922610305742876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01747505797796584</v>
+      </c>
+      <c r="G11">
+        <v>0.04592174292501201</v>
+      </c>
+      <c r="H11">
+        <v>0.008589647489437916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04457264964200189</v>
+        <v>0.03666643745624151</v>
       </c>
       <c r="C12">
-        <v>0.009492216003195832</v>
+        <v>-0.01400745716074128</v>
       </c>
       <c r="D12">
-        <v>-0.02785203750313213</v>
+        <v>-0.0281460966619718</v>
       </c>
       <c r="E12">
-        <v>0.03387106989176895</v>
+        <v>0.006717410533776268</v>
       </c>
       <c r="F12">
-        <v>0.02307714109316028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02395526411309539</v>
+      </c>
+      <c r="G12">
+        <v>0.01508460196112056</v>
+      </c>
+      <c r="H12">
+        <v>0.006743917183872199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04798338354269654</v>
+        <v>0.03715943900526344</v>
       </c>
       <c r="C13">
-        <v>0.02284431555346501</v>
+        <v>0.005887114250391822</v>
       </c>
       <c r="D13">
-        <v>-0.05230101215755423</v>
+        <v>-0.01573899412004401</v>
       </c>
       <c r="E13">
-        <v>-0.008426661145527403</v>
+        <v>-0.01742869589604083</v>
       </c>
       <c r="F13">
-        <v>0.1098530721023196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0199755417217583</v>
+      </c>
+      <c r="G13">
+        <v>0.08951197709135365</v>
+      </c>
+      <c r="H13">
+        <v>0.03202495608109008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02432548847056767</v>
+        <v>0.0198106014384566</v>
       </c>
       <c r="C14">
-        <v>0.0192056719220757</v>
+        <v>-0.003683504221564523</v>
       </c>
       <c r="D14">
-        <v>-0.04077142209699854</v>
+        <v>-0.009485435363547928</v>
       </c>
       <c r="E14">
-        <v>0.02424466398089705</v>
+        <v>0.00615893106442871</v>
       </c>
       <c r="F14">
-        <v>0.04186711596430361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0292264162266296</v>
+      </c>
+      <c r="G14">
+        <v>0.04081248624798445</v>
+      </c>
+      <c r="H14">
+        <v>0.06545265832276427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03750675036213813</v>
+        <v>0.03027324950463195</v>
       </c>
       <c r="C16">
-        <v>0.007860148683557586</v>
+        <v>-0.01584845037816039</v>
       </c>
       <c r="D16">
-        <v>-0.0271084709069818</v>
+        <v>-0.02754189710022114</v>
       </c>
       <c r="E16">
-        <v>0.01530999595853868</v>
+        <v>0.0005106830068227602</v>
       </c>
       <c r="F16">
-        <v>0.02953908397959754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02153109161629599</v>
+      </c>
+      <c r="G16">
+        <v>0.03339811884363089</v>
+      </c>
+      <c r="H16">
+        <v>0.008891538864232766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05515429798699721</v>
+        <v>0.04030129409073242</v>
       </c>
       <c r="C19">
-        <v>0.002970342682976476</v>
+        <v>-0.007683250941378573</v>
       </c>
       <c r="D19">
-        <v>-0.04652632122482123</v>
+        <v>-0.02852148754404812</v>
       </c>
       <c r="E19">
-        <v>0.01221432264566657</v>
+        <v>-0.004531017119926441</v>
       </c>
       <c r="F19">
-        <v>0.08876794908158628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03034240463222588</v>
+      </c>
+      <c r="G19">
+        <v>0.08836674692074731</v>
+      </c>
+      <c r="H19">
+        <v>0.03956729138487457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01511838901204104</v>
+        <v>0.01228896570699363</v>
       </c>
       <c r="C20">
-        <v>0.01340593505626333</v>
+        <v>0.004146794635569244</v>
       </c>
       <c r="D20">
-        <v>-0.04506041403930059</v>
+        <v>-0.01534078176752056</v>
       </c>
       <c r="E20">
-        <v>0.03698234311645574</v>
+        <v>0.004170168599679974</v>
       </c>
       <c r="F20">
-        <v>0.05685970131866417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02387941953820585</v>
+      </c>
+      <c r="G20">
+        <v>0.0532776804144052</v>
+      </c>
+      <c r="H20">
+        <v>0.05827270477344921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01596035234604586</v>
+        <v>0.02477472982351997</v>
       </c>
       <c r="C21">
-        <v>-0.006127492942155236</v>
+        <v>0.002852374265099264</v>
       </c>
       <c r="D21">
-        <v>-0.03895905673265368</v>
+        <v>-0.0147262516155351</v>
       </c>
       <c r="E21">
-        <v>0.0182575298806276</v>
+        <v>0.01167777708971151</v>
       </c>
       <c r="F21">
-        <v>0.09607766929100475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01038215228424065</v>
+      </c>
+      <c r="G21">
+        <v>0.07339061394932732</v>
+      </c>
+      <c r="H21">
+        <v>0.02945677518831146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03448466883794984</v>
+        <v>0.0293427272827373</v>
       </c>
       <c r="C24">
-        <v>0.00724548779860189</v>
+        <v>-0.01060492790875118</v>
       </c>
       <c r="D24">
-        <v>-0.02389797960583157</v>
+        <v>-0.02474753130512371</v>
       </c>
       <c r="E24">
-        <v>0.01641240460882007</v>
+        <v>0.001149170572027474</v>
       </c>
       <c r="F24">
-        <v>0.03863060637660825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01872827952047147</v>
+      </c>
+      <c r="G24">
+        <v>0.0358911732617024</v>
+      </c>
+      <c r="H24">
+        <v>0.003971443685332257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03977928747173883</v>
+        <v>0.03941891308745565</v>
       </c>
       <c r="C25">
-        <v>0.00748633859634184</v>
+        <v>-0.009471189509288937</v>
       </c>
       <c r="D25">
-        <v>-0.02699779981305041</v>
+        <v>-0.02506709427818067</v>
       </c>
       <c r="E25">
-        <v>0.02297868975506387</v>
+        <v>0.001364999600207435</v>
       </c>
       <c r="F25">
-        <v>0.04662366887110385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0220874600821798</v>
+      </c>
+      <c r="G25">
+        <v>0.04365803858543763</v>
+      </c>
+      <c r="H25">
+        <v>0.001180605780425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01982006198518181</v>
+        <v>0.01877104005601864</v>
       </c>
       <c r="C26">
-        <v>-0.003025191679786138</v>
+        <v>0.01600732955469221</v>
       </c>
       <c r="D26">
-        <v>-0.05094512759608889</v>
+        <v>-0.01777373265485633</v>
       </c>
       <c r="E26">
-        <v>0.006572857630727458</v>
+        <v>-0.004200371298289795</v>
       </c>
       <c r="F26">
-        <v>0.04768941018352511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008653076248181004</v>
+      </c>
+      <c r="G26">
+        <v>0.04799487685614148</v>
+      </c>
+      <c r="H26">
+        <v>0.04248291013503305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09903260729699011</v>
+        <v>0.04956571615336956</v>
       </c>
       <c r="C27">
-        <v>0.05051320867239825</v>
+        <v>-0.02424405407293783</v>
       </c>
       <c r="D27">
-        <v>-0.03314436227097133</v>
+        <v>-0.00803094562662607</v>
       </c>
       <c r="E27">
-        <v>0.0341909767371557</v>
+        <v>-0.0005024983150393542</v>
       </c>
       <c r="F27">
-        <v>0.06030263504292332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02817735094999304</v>
+      </c>
+      <c r="G27">
+        <v>0.04532692605382083</v>
+      </c>
+      <c r="H27">
+        <v>0.03209516975994057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05091082010637544</v>
+        <v>0.08101638727992169</v>
       </c>
       <c r="C28">
-        <v>0.08953338074224192</v>
+        <v>-0.011069411087976</v>
       </c>
       <c r="D28">
-        <v>0.1839935051758979</v>
+        <v>0.2396979793360627</v>
       </c>
       <c r="E28">
-        <v>-0.1387228234998781</v>
+        <v>-0.02589645755630002</v>
       </c>
       <c r="F28">
-        <v>0.05347158089654192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.09452788218572175</v>
+      </c>
+      <c r="G28">
+        <v>0.02057525635084251</v>
+      </c>
+      <c r="H28">
+        <v>0.0531843475821959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02480137236608844</v>
+        <v>0.02079896658785245</v>
       </c>
       <c r="C29">
-        <v>0.01521793448839272</v>
+        <v>-0.004311684828083177</v>
       </c>
       <c r="D29">
-        <v>-0.03903141979051029</v>
+        <v>-0.01089276256834717</v>
       </c>
       <c r="E29">
-        <v>0.03514613581261551</v>
+        <v>0.008306129516267377</v>
       </c>
       <c r="F29">
-        <v>0.02711236009007109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03076652179325448</v>
+      </c>
+      <c r="G29">
+        <v>0.03491388862531209</v>
+      </c>
+      <c r="H29">
+        <v>0.06696296201128664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09802547912610997</v>
+        <v>0.07684820828795562</v>
       </c>
       <c r="C30">
-        <v>0.05629330980355743</v>
+        <v>-0.01389198223928696</v>
       </c>
       <c r="D30">
-        <v>-0.06456482663561686</v>
+        <v>-0.04047756048528951</v>
       </c>
       <c r="E30">
-        <v>0.02323072241806969</v>
+        <v>-0.04116022121885952</v>
       </c>
       <c r="F30">
-        <v>0.0872692673123408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.06375029100410676</v>
+      </c>
+      <c r="G30">
+        <v>0.09484576092099638</v>
+      </c>
+      <c r="H30">
+        <v>0.00935732001161968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06192724209867342</v>
+        <v>0.05387708656006605</v>
       </c>
       <c r="C31">
-        <v>0.01836636799241867</v>
+        <v>-0.02136922068857592</v>
       </c>
       <c r="D31">
-        <v>-0.0390026363288201</v>
+        <v>-0.012619022106336</v>
       </c>
       <c r="E31">
-        <v>-0.02502237031704022</v>
+        <v>-0.01022837171505073</v>
       </c>
       <c r="F31">
-        <v>0.01526598607291287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01576128681476056</v>
+      </c>
+      <c r="G31">
+        <v>0.01492997428966405</v>
+      </c>
+      <c r="H31">
+        <v>0.06107237022501876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.05110030176254719</v>
+        <v>0.02101106782670424</v>
       </c>
       <c r="C32">
-        <v>0.02222390385155198</v>
+        <v>-0.02123100689864829</v>
       </c>
       <c r="D32">
-        <v>-0.0498913599507714</v>
+        <v>-0.02114943761217559</v>
       </c>
       <c r="E32">
-        <v>0.04008023271231127</v>
+        <v>0.01504529453365206</v>
       </c>
       <c r="F32">
-        <v>0.06509428529171965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05435224332004984</v>
+      </c>
+      <c r="G32">
+        <v>0.07662885197188271</v>
+      </c>
+      <c r="H32">
+        <v>0.005448653676132841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05476125278485527</v>
+        <v>0.04353984233584594</v>
       </c>
       <c r="C33">
-        <v>0.002413072771430924</v>
+        <v>-0.009040454661799622</v>
       </c>
       <c r="D33">
-        <v>-0.071523385530519</v>
+        <v>-0.03856366399444242</v>
       </c>
       <c r="E33">
-        <v>0.019017364120001</v>
+        <v>-0.02059993435857897</v>
       </c>
       <c r="F33">
-        <v>0.08472093557302934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01830065244643811</v>
+      </c>
+      <c r="G33">
+        <v>0.07638109097202289</v>
+      </c>
+      <c r="H33">
+        <v>0.05149130342076722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0388855195561667</v>
+        <v>0.03070285703940626</v>
       </c>
       <c r="C34">
-        <v>0.01444286286636462</v>
+        <v>-0.02365807683512947</v>
       </c>
       <c r="D34">
-        <v>-0.03113731306572591</v>
+        <v>-0.02591085215417852</v>
       </c>
       <c r="E34">
-        <v>0.02273303682915528</v>
+        <v>0.006208749051183489</v>
       </c>
       <c r="F34">
-        <v>0.03940968339712377</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02724455245307474</v>
+      </c>
+      <c r="G34">
+        <v>0.03719651587385536</v>
+      </c>
+      <c r="H34">
+        <v>0.005643592338400023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01800671021297074</v>
+        <v>0.01965364160112382</v>
       </c>
       <c r="C36">
-        <v>0.01320375519986054</v>
+        <v>0.002391948746499241</v>
       </c>
       <c r="D36">
-        <v>-0.007493039029349551</v>
+        <v>0.002819653030836278</v>
       </c>
       <c r="E36">
-        <v>0.007568703025679815</v>
+        <v>0.001906718305034256</v>
       </c>
       <c r="F36">
-        <v>0.03160912929606057</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.008315721285310535</v>
+      </c>
+      <c r="G36">
+        <v>0.03083939442072503</v>
+      </c>
+      <c r="H36">
+        <v>0.0371913230482773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01086958476805412</v>
+        <v>0.01640905495859149</v>
       </c>
       <c r="C38">
-        <v>0.007170721633934001</v>
+        <v>-0.01645934713918028</v>
       </c>
       <c r="D38">
-        <v>0.01273249503717802</v>
+        <v>-0.001106790735088702</v>
       </c>
       <c r="E38">
-        <v>0.003614543601261905</v>
+        <v>0.003641081279894056</v>
       </c>
       <c r="F38">
-        <v>0.03073064368128513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003479008883996578</v>
+      </c>
+      <c r="G38">
+        <v>0.04236113203558937</v>
+      </c>
+      <c r="H38">
+        <v>0.02049100028651444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05260799555027416</v>
+        <v>0.03846589700240996</v>
       </c>
       <c r="C39">
-        <v>0.01733715175130159</v>
+        <v>-0.01442774719484073</v>
       </c>
       <c r="D39">
-        <v>-0.04855966974468982</v>
+        <v>-0.04678384590032657</v>
       </c>
       <c r="E39">
-        <v>0.01146713927307576</v>
+        <v>-0.00360274520420431</v>
       </c>
       <c r="F39">
-        <v>0.03712227550850368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04083931574779467</v>
+      </c>
+      <c r="G39">
+        <v>0.05418717929121743</v>
+      </c>
+      <c r="H39">
+        <v>-0.004653546800688147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05331155818211281</v>
+        <v>0.04391851656338377</v>
       </c>
       <c r="C40">
-        <v>0.03819752495362484</v>
+        <v>-0.01203065538249241</v>
       </c>
       <c r="D40">
-        <v>-0.07907434726066824</v>
+        <v>-0.03353654060874212</v>
       </c>
       <c r="E40">
-        <v>-0.002667878828713067</v>
+        <v>-0.02269080202476827</v>
       </c>
       <c r="F40">
-        <v>0.08276936624817831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03851138825288401</v>
+      </c>
+      <c r="G40">
+        <v>0.07112398166212291</v>
+      </c>
+      <c r="H40">
+        <v>0.0294299264760043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01083637339318947</v>
+        <v>0.001341925149720617</v>
       </c>
       <c r="C41">
-        <v>-0.006520068912173213</v>
+        <v>0.00332644027819769</v>
       </c>
       <c r="D41">
-        <v>-0.02553712143001623</v>
+        <v>-0.001150526358807757</v>
       </c>
       <c r="E41">
-        <v>0.01978708832315614</v>
+        <v>0.0005806410683270482</v>
       </c>
       <c r="F41">
-        <v>0.005769138809561285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003910848717073793</v>
+      </c>
+      <c r="G41">
+        <v>0.008248146716536077</v>
+      </c>
+      <c r="H41">
+        <v>0.0540263621516878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3741763334281309</v>
+        <v>0.2655506370496615</v>
       </c>
       <c r="C42">
-        <v>-0.8734388502917991</v>
+        <v>0.02866970301605947</v>
       </c>
       <c r="D42">
-        <v>0.09786215248779898</v>
+        <v>-0.4571431567655402</v>
       </c>
       <c r="E42">
-        <v>-0.2360111422299923</v>
+        <v>-0.03342895270719975</v>
       </c>
       <c r="F42">
-        <v>-0.04085044661590759</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8302905382452906</v>
+      </c>
+      <c r="G42">
+        <v>-0.08271013030534388</v>
+      </c>
+      <c r="H42">
+        <v>-0.01369156580418093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01208838546256141</v>
+        <v>0.0009057697405215188</v>
       </c>
       <c r="C43">
-        <v>-0.002348782943729499</v>
+        <v>0.004829401944766969</v>
       </c>
       <c r="D43">
-        <v>-0.02871074660615012</v>
+        <v>-0.001277346215754829</v>
       </c>
       <c r="E43">
-        <v>0.01243422089406983</v>
+        <v>-0.002946841589744752</v>
       </c>
       <c r="F43">
-        <v>0.03001743134178229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0003944334961291651</v>
+      </c>
+      <c r="G43">
+        <v>0.02013877994737503</v>
+      </c>
+      <c r="H43">
+        <v>0.04814226085956005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03223545216629698</v>
+        <v>0.01599147632505218</v>
       </c>
       <c r="C44">
-        <v>0.005219877577547623</v>
+        <v>-0.003763998793806527</v>
       </c>
       <c r="D44">
-        <v>-0.06038147897527927</v>
+        <v>-0.02186907769390057</v>
       </c>
       <c r="E44">
-        <v>0.02573769813582101</v>
+        <v>0.003437053385236684</v>
       </c>
       <c r="F44">
-        <v>0.1603685011441369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01373326248455873</v>
+      </c>
+      <c r="G44">
+        <v>0.1186579083479711</v>
+      </c>
+      <c r="H44">
+        <v>0.0862958203411673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02457944273440662</v>
+        <v>0.02026701462153624</v>
       </c>
       <c r="C46">
-        <v>0.01285929553899102</v>
+        <v>-0.001026111312197401</v>
       </c>
       <c r="D46">
-        <v>-0.0554418071959123</v>
+        <v>-0.02338155576230835</v>
       </c>
       <c r="E46">
-        <v>0.02561117526589819</v>
+        <v>-0.003309411710382</v>
       </c>
       <c r="F46">
-        <v>0.024509869863033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03966048827314907</v>
+      </c>
+      <c r="G46">
+        <v>0.04849639626507397</v>
+      </c>
+      <c r="H46">
+        <v>0.06674412730284435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09161332625585271</v>
+        <v>0.07733963516875876</v>
       </c>
       <c r="C47">
-        <v>0.03278577866487562</v>
+        <v>-0.04103905261716021</v>
       </c>
       <c r="D47">
-        <v>-0.03546679423520972</v>
+        <v>-0.01901045792528606</v>
       </c>
       <c r="E47">
-        <v>0.01432577459284346</v>
+        <v>-0.005960244630061306</v>
       </c>
       <c r="F47">
-        <v>-0.01221883073024629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02665474800902856</v>
+      </c>
+      <c r="G47">
+        <v>-0.01729175759387709</v>
+      </c>
+      <c r="H47">
+        <v>0.0745106019774168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01382680267032238</v>
+        <v>0.01802490521243193</v>
       </c>
       <c r="C48">
-        <v>0.009665374042062023</v>
+        <v>-0.007492573403284573</v>
       </c>
       <c r="D48">
-        <v>-0.03112331687969658</v>
+        <v>-0.007686625108047918</v>
       </c>
       <c r="E48">
-        <v>0.01427682476038027</v>
+        <v>-0.0003095517624758023</v>
       </c>
       <c r="F48">
-        <v>0.04543552496442145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01280381177302528</v>
+      </c>
+      <c r="G48">
+        <v>0.03496116531314267</v>
+      </c>
+      <c r="H48">
+        <v>0.03264955660378936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09249882052433128</v>
+        <v>0.07466395835993736</v>
       </c>
       <c r="C50">
-        <v>0.01239022725868954</v>
+        <v>-0.03653615914712059</v>
       </c>
       <c r="D50">
-        <v>-0.04048230841836203</v>
+        <v>-0.03105033394481137</v>
       </c>
       <c r="E50">
-        <v>0.003480192407577248</v>
+        <v>0.007565691695463298</v>
       </c>
       <c r="F50">
-        <v>0.002959545859058939</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01734129712572548</v>
+      </c>
+      <c r="G50">
+        <v>0.01261957275724547</v>
+      </c>
+      <c r="H50">
+        <v>0.06205747969722748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04666325597236236</v>
+        <v>0.02399282576126083</v>
       </c>
       <c r="C51">
-        <v>0.004787338526911145</v>
+        <v>-0.002809263948597692</v>
       </c>
       <c r="D51">
-        <v>-0.03026392737093754</v>
+        <v>0.0046921882398711</v>
       </c>
       <c r="E51">
-        <v>-0.03933187962153788</v>
+        <v>-0.01231423366585411</v>
       </c>
       <c r="F51">
-        <v>0.1280480909372709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01439962850328673</v>
+      </c>
+      <c r="G51">
+        <v>0.09383569478060211</v>
+      </c>
+      <c r="H51">
+        <v>0.06469690090334652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1194093705441255</v>
+        <v>0.1038069753230304</v>
       </c>
       <c r="C53">
-        <v>0.02923356436988266</v>
+        <v>-0.05502747055391372</v>
       </c>
       <c r="D53">
-        <v>-0.0691005098086033</v>
+        <v>-0.04909006133241386</v>
       </c>
       <c r="E53">
-        <v>0.01521877533035509</v>
+        <v>-0.004333813610813035</v>
       </c>
       <c r="F53">
-        <v>-0.07898911661567685</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05588622336480611</v>
+      </c>
+      <c r="G53">
+        <v>-0.05635327905983558</v>
+      </c>
+      <c r="H53">
+        <v>0.03130541253714859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02279399509746422</v>
+        <v>0.01962574186180308</v>
       </c>
       <c r="C54">
-        <v>0.02573470610272077</v>
+        <v>-0.01349489263365667</v>
       </c>
       <c r="D54">
-        <v>-0.0232674668157931</v>
+        <v>0.009350996157429722</v>
       </c>
       <c r="E54">
-        <v>0.01756867742932345</v>
+        <v>0.002281545755888728</v>
       </c>
       <c r="F54">
-        <v>0.04701646311633177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02226696304527076</v>
+      </c>
+      <c r="G54">
+        <v>0.04083447542396557</v>
+      </c>
+      <c r="H54">
+        <v>0.07059168635083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1045033123366813</v>
+        <v>0.08839413662614139</v>
       </c>
       <c r="C55">
-        <v>0.02908517258997944</v>
+        <v>-0.04772511173868223</v>
       </c>
       <c r="D55">
-        <v>-0.0179150470077962</v>
+        <v>-0.03855387322673291</v>
       </c>
       <c r="E55">
-        <v>0.04104540729668994</v>
+        <v>0.009904833439640199</v>
       </c>
       <c r="F55">
-        <v>-0.06471956105107431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04704438976057863</v>
+      </c>
+      <c r="G55">
+        <v>-0.0453927049152337</v>
+      </c>
+      <c r="H55">
+        <v>0.04273412885396625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.139809994073733</v>
+        <v>0.1356585042630847</v>
       </c>
       <c r="C56">
-        <v>0.0725821433381829</v>
+        <v>-0.07795273059881776</v>
       </c>
       <c r="D56">
-        <v>-0.04367141666153048</v>
+        <v>-0.0410439516348123</v>
       </c>
       <c r="E56">
-        <v>0.0403473390481336</v>
+        <v>-3.082230293975555e-05</v>
       </c>
       <c r="F56">
-        <v>-0.1419462766425253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.07885616235766883</v>
+      </c>
+      <c r="G56">
+        <v>-0.1042332262346963</v>
+      </c>
+      <c r="H56">
+        <v>-0.0004101374929500766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.06130620089393749</v>
+        <v>0.05597260606488216</v>
       </c>
       <c r="C57">
-        <v>0.02101422285258394</v>
+        <v>-0.001860758192086636</v>
       </c>
       <c r="D57">
-        <v>-0.04425741351274794</v>
+        <v>-0.01936715929310818</v>
       </c>
       <c r="E57">
-        <v>-0.009731548145412836</v>
+        <v>-0.01627479907954572</v>
       </c>
       <c r="F57">
-        <v>0.07425435490667123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01513516052693257</v>
+      </c>
+      <c r="G57">
+        <v>0.05942189785444844</v>
+      </c>
+      <c r="H57">
+        <v>0.01900090027972292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2261929733808149</v>
+        <v>0.1706694251750143</v>
       </c>
       <c r="C58">
-        <v>0.05408940254560406</v>
+        <v>-0.07113277603593568</v>
       </c>
       <c r="D58">
-        <v>-0.1292489108332645</v>
+        <v>-0.07211252221933001</v>
       </c>
       <c r="E58">
-        <v>0.01124939685422006</v>
+        <v>-0.1082598915781424</v>
       </c>
       <c r="F58">
-        <v>0.1946119269086199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01964360753542125</v>
+      </c>
+      <c r="G58">
+        <v>0.4189259584052443</v>
+      </c>
+      <c r="H58">
+        <v>0.3677073105537816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05281956943164133</v>
+        <v>0.0814027157990954</v>
       </c>
       <c r="C59">
-        <v>0.1117061810924383</v>
+        <v>-0.01994410367334172</v>
       </c>
       <c r="D59">
-        <v>0.1325758714880403</v>
+        <v>0.212847582448193</v>
       </c>
       <c r="E59">
-        <v>-0.08924347738241614</v>
+        <v>-0.03926904964507922</v>
       </c>
       <c r="F59">
-        <v>0.03747794920773058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.05231773865534337</v>
+      </c>
+      <c r="G59">
+        <v>0.04339945966765284</v>
+      </c>
+      <c r="H59">
+        <v>0.009960008825612604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.175765834968081</v>
+        <v>0.1828473039705666</v>
       </c>
       <c r="C60">
-        <v>0.08267819258403847</v>
+        <v>-0.06327751481270673</v>
       </c>
       <c r="D60">
-        <v>-0.00867261453667304</v>
+        <v>0.03919444493939213</v>
       </c>
       <c r="E60">
-        <v>-0.08306198032573638</v>
+        <v>-0.06934797023060356</v>
       </c>
       <c r="F60">
-        <v>0.1395435131097849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03662771499731835</v>
+      </c>
+      <c r="G60">
+        <v>0.1968926141592157</v>
+      </c>
+      <c r="H60">
+        <v>-0.3709738992023208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03359124546828801</v>
+        <v>0.03247840605902969</v>
       </c>
       <c r="C61">
-        <v>0.01166644312158235</v>
+        <v>-0.01505962444813657</v>
       </c>
       <c r="D61">
-        <v>-0.01922732703821206</v>
+        <v>-0.03026383745774668</v>
       </c>
       <c r="E61">
-        <v>0.01823202223089706</v>
+        <v>0.001758525393800193</v>
       </c>
       <c r="F61">
-        <v>0.03361016080286341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02771252004026627</v>
+      </c>
+      <c r="G61">
+        <v>0.03923194837936225</v>
+      </c>
+      <c r="H61">
+        <v>-0.01062886595402478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02518465986936863</v>
+        <v>0.02173601274596702</v>
       </c>
       <c r="C63">
-        <v>0.021586327815552</v>
+        <v>-0.004318089439067044</v>
       </c>
       <c r="D63">
-        <v>-0.04717316367072511</v>
+        <v>-0.01853167924736801</v>
       </c>
       <c r="E63">
-        <v>0.02431326513942566</v>
+        <v>-0.0003230374786181905</v>
       </c>
       <c r="F63">
-        <v>0.03619323943722719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0270579772715519</v>
+      </c>
+      <c r="G63">
+        <v>0.03182690742015692</v>
+      </c>
+      <c r="H63">
+        <v>0.05517662465051008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05146666551583064</v>
+        <v>0.04748626747978604</v>
       </c>
       <c r="C64">
-        <v>0.01353208845312866</v>
+        <v>-0.01993853123695885</v>
       </c>
       <c r="D64">
-        <v>-0.04425403356529924</v>
+        <v>-0.03728947880193186</v>
       </c>
       <c r="E64">
-        <v>0.06093619761727612</v>
+        <v>0.01076837260808692</v>
       </c>
       <c r="F64">
-        <v>0.05571633823852595</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0321971129806916</v>
+      </c>
+      <c r="G64">
+        <v>0.03897897917518961</v>
+      </c>
+      <c r="H64">
+        <v>0.02944143772151107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.006462599509277525</v>
+        <v>0.0382321951665525</v>
       </c>
       <c r="C65">
-        <v>0.002453524637890137</v>
+        <v>-0.002857575225483435</v>
       </c>
       <c r="D65">
-        <v>-0.001008910507774476</v>
+        <v>-0.01782936425361357</v>
       </c>
       <c r="E65">
-        <v>-0.00519934080049846</v>
+        <v>0.00331203713887258</v>
       </c>
       <c r="F65">
-        <v>0.00216146423717356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02506942070475941</v>
+      </c>
+      <c r="G65">
+        <v>0.005025636228324043</v>
+      </c>
+      <c r="H65">
+        <v>-0.03620584647673518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05049218399932119</v>
+        <v>0.04561283646851597</v>
       </c>
       <c r="C66">
-        <v>0.03077870675396087</v>
+        <v>-0.0209310112387013</v>
       </c>
       <c r="D66">
-        <v>-0.0575717250853922</v>
+        <v>-0.04986850830467898</v>
       </c>
       <c r="E66">
-        <v>0.02905578438591179</v>
+        <v>-0.01042456638159322</v>
       </c>
       <c r="F66">
-        <v>0.07533925760608172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06770063400967231</v>
+      </c>
+      <c r="G66">
+        <v>0.06399142392596734</v>
+      </c>
+      <c r="H66">
+        <v>-0.02003660947345581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02780976205589035</v>
+        <v>0.0337371449250162</v>
       </c>
       <c r="C67">
-        <v>0.01807385077708274</v>
+        <v>-0.02032003826342881</v>
       </c>
       <c r="D67">
-        <v>0.02488254159054508</v>
+        <v>0.01030387887418174</v>
       </c>
       <c r="E67">
-        <v>-0.0120592063896567</v>
+        <v>-0.001838670285133704</v>
       </c>
       <c r="F67">
-        <v>0.03717519825733193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.003666318774668014</v>
+      </c>
+      <c r="G67">
+        <v>0.03490382194776833</v>
+      </c>
+      <c r="H67">
+        <v>0.002320606286465896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06028517856588009</v>
+        <v>0.08766607678966147</v>
       </c>
       <c r="C68">
-        <v>0.1008571451275917</v>
+        <v>0.0007636605002093803</v>
       </c>
       <c r="D68">
-        <v>0.1880457691494426</v>
+        <v>0.229569503902756</v>
       </c>
       <c r="E68">
-        <v>-0.1313142257041757</v>
+        <v>-0.03502047608429879</v>
       </c>
       <c r="F68">
-        <v>-0.007937053135201442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.08645047400621934</v>
+      </c>
+      <c r="G68">
+        <v>-0.001314034503729224</v>
+      </c>
+      <c r="H68">
+        <v>0.04526215852136621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07267060545295245</v>
+        <v>0.06157927511089735</v>
       </c>
       <c r="C69">
-        <v>0.03213891898753591</v>
+        <v>-0.03720509939079034</v>
       </c>
       <c r="D69">
-        <v>-0.02160769095207571</v>
+        <v>-0.01351139581592588</v>
       </c>
       <c r="E69">
-        <v>-0.00392436662417801</v>
+        <v>-0.008146786712448034</v>
       </c>
       <c r="F69">
-        <v>0.003027288214863357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02363517783148905</v>
+      </c>
+      <c r="G69">
+        <v>-0.0007471073688709066</v>
+      </c>
+      <c r="H69">
+        <v>0.04731934563576982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05979467383272964</v>
+        <v>0.08464513608484563</v>
       </c>
       <c r="C71">
-        <v>0.1181321369536119</v>
+        <v>-0.007358349839524279</v>
       </c>
       <c r="D71">
-        <v>0.2317575348053043</v>
+        <v>0.243408488655679</v>
       </c>
       <c r="E71">
-        <v>-0.2141279135000929</v>
+        <v>-0.04240740476517128</v>
       </c>
       <c r="F71">
-        <v>0.05891297377252915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1102654441430055</v>
+      </c>
+      <c r="G71">
+        <v>0.01849415601514724</v>
+      </c>
+      <c r="H71">
+        <v>0.01886454232354221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.12483069228725</v>
+        <v>0.1171520450774458</v>
       </c>
       <c r="C72">
-        <v>0.1015528342499119</v>
+        <v>-0.06942638047462202</v>
       </c>
       <c r="D72">
-        <v>-0.04872810558289534</v>
+        <v>-0.03545932732961168</v>
       </c>
       <c r="E72">
-        <v>0.02898132258444449</v>
+        <v>-0.01861353171026341</v>
       </c>
       <c r="F72">
-        <v>0.02092685881052899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1084976226849316</v>
+      </c>
+      <c r="G72">
+        <v>0.1055405323487878</v>
+      </c>
+      <c r="H72">
+        <v>-0.08068233503461293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.25192512792088</v>
+        <v>0.2545644837255586</v>
       </c>
       <c r="C73">
-        <v>0.124365592742547</v>
+        <v>-0.08356739329896441</v>
       </c>
       <c r="D73">
-        <v>0.03883308852293983</v>
+        <v>0.02871786297364885</v>
       </c>
       <c r="E73">
-        <v>-0.12140648414382</v>
+        <v>-0.1026470910029117</v>
       </c>
       <c r="F73">
-        <v>0.2619040403996081</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.02420269776857488</v>
+      </c>
+      <c r="G73">
+        <v>0.2664368277355996</v>
+      </c>
+      <c r="H73">
+        <v>-0.537658230132675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1290969379331313</v>
+        <v>0.1240060072819326</v>
       </c>
       <c r="C74">
-        <v>0.03205120980478877</v>
+        <v>-0.07028306601020565</v>
       </c>
       <c r="D74">
-        <v>-0.03636991289263421</v>
+        <v>-0.04559037086797372</v>
       </c>
       <c r="E74">
-        <v>0.01904455518464297</v>
+        <v>-0.007136454260802712</v>
       </c>
       <c r="F74">
-        <v>-0.116749820132507</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.05827167181057255</v>
+      </c>
+      <c r="G74">
+        <v>-0.08808236119607035</v>
+      </c>
+      <c r="H74">
+        <v>-0.00947165067281653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2183845612594467</v>
+        <v>0.2279809294131563</v>
       </c>
       <c r="C75">
-        <v>0.1016403445521985</v>
+        <v>-0.132717546471077</v>
       </c>
       <c r="D75">
-        <v>-0.0861531912914648</v>
+        <v>-0.05813021645394839</v>
       </c>
       <c r="E75">
-        <v>0.0184356526963819</v>
+        <v>-0.0299350181845369</v>
       </c>
       <c r="F75">
-        <v>-0.1803635566536126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1247730664306783</v>
+      </c>
+      <c r="G75">
+        <v>-0.1754594525110381</v>
+      </c>
+      <c r="H75">
+        <v>0.01994940762470335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2367005018469518</v>
+        <v>0.2202579514124471</v>
       </c>
       <c r="C76">
-        <v>0.1230307194031362</v>
+        <v>-0.1306581079507914</v>
       </c>
       <c r="D76">
-        <v>-0.02508637950044464</v>
+        <v>-0.04346651786874976</v>
       </c>
       <c r="E76">
-        <v>0.06540893291495813</v>
+        <v>0.01182204841140499</v>
       </c>
       <c r="F76">
-        <v>-0.2048348646848736</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1322182169117732</v>
+      </c>
+      <c r="G76">
+        <v>-0.196025428678879</v>
+      </c>
+      <c r="H76">
+        <v>0.03785834468370387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1549995437792984</v>
+        <v>0.09925458016581906</v>
       </c>
       <c r="C77">
-        <v>-0.01587631378311374</v>
+        <v>-0.03121389517860988</v>
       </c>
       <c r="D77">
-        <v>-0.07897311249146564</v>
+        <v>-0.07153965594538277</v>
       </c>
       <c r="E77">
-        <v>0.005948227027330638</v>
+        <v>-0.01087426174573623</v>
       </c>
       <c r="F77">
-        <v>0.2143456195250581</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.009771671504538839</v>
+      </c>
+      <c r="G77">
+        <v>0.1500503742643637</v>
+      </c>
+      <c r="H77">
+        <v>0.1929697564472573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07880225528805328</v>
+        <v>0.05309263574095679</v>
       </c>
       <c r="C78">
-        <v>-0.002943295496251065</v>
+        <v>-0.02402032120898848</v>
       </c>
       <c r="D78">
-        <v>-0.08271578005798291</v>
+        <v>-0.053976131152107</v>
       </c>
       <c r="E78">
-        <v>0.05631876407713051</v>
+        <v>0.003716385308789</v>
       </c>
       <c r="F78">
-        <v>0.05275115819169615</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04589713519667954</v>
+      </c>
+      <c r="G78">
+        <v>0.07539850688550194</v>
+      </c>
+      <c r="H78">
+        <v>0.02518372166029321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1602656683409214</v>
+        <v>0.1701509205539669</v>
       </c>
       <c r="C80">
-        <v>-0.09132059337781474</v>
+        <v>-0.06443831792349498</v>
       </c>
       <c r="D80">
-        <v>0.567569188777354</v>
+        <v>0.09312078426501691</v>
       </c>
       <c r="E80">
-        <v>0.7754313979524841</v>
+        <v>0.9626906445544208</v>
       </c>
       <c r="F80">
-        <v>0.1158964538645735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.05497318826188897</v>
+      </c>
+      <c r="G80">
+        <v>0.09164084324720173</v>
+      </c>
+      <c r="H80">
+        <v>-0.02960258071659529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1691113681213746</v>
+        <v>0.167704210381498</v>
       </c>
       <c r="C81">
-        <v>0.07912387336744681</v>
+        <v>-0.09600933153550267</v>
       </c>
       <c r="D81">
-        <v>-0.04752948454680185</v>
+        <v>-0.03905332140425947</v>
       </c>
       <c r="E81">
-        <v>0.02922108223394084</v>
+        <v>-0.007516721660142527</v>
       </c>
       <c r="F81">
-        <v>-0.1975994987578265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09402462572370715</v>
+      </c>
+      <c r="G81">
+        <v>-0.1339926796450219</v>
+      </c>
+      <c r="H81">
+        <v>0.02972099226005908</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05773175941534241</v>
+        <v>0.04242599786655575</v>
       </c>
       <c r="C83">
-        <v>-0.01689868562107472</v>
+        <v>-0.01472838570307645</v>
       </c>
       <c r="D83">
-        <v>-0.06136207405961604</v>
+        <v>-0.02874218814109519</v>
       </c>
       <c r="E83">
-        <v>0.008808381318961124</v>
+        <v>-0.01145912243996654</v>
       </c>
       <c r="F83">
-        <v>0.05343926938098205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.007485736964700071</v>
+      </c>
+      <c r="G83">
+        <v>0.05750579313459616</v>
+      </c>
+      <c r="H83">
+        <v>0.03576505555514029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2096711015969544</v>
+        <v>0.2137667148015763</v>
       </c>
       <c r="C85">
-        <v>0.07083791479814566</v>
+        <v>-0.1142792373903964</v>
       </c>
       <c r="D85">
-        <v>-0.07004711192036032</v>
+        <v>-0.08328868374048554</v>
       </c>
       <c r="E85">
-        <v>0.06337115437911872</v>
+        <v>-0.01306098003884113</v>
       </c>
       <c r="F85">
-        <v>-0.2341721143529676</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1234088278827612</v>
+      </c>
+      <c r="G85">
+        <v>-0.1910606367657262</v>
+      </c>
+      <c r="H85">
+        <v>0.02798536545148047</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02222519751208823</v>
+        <v>0.01226044028365914</v>
       </c>
       <c r="C86">
-        <v>-0.00736290244799126</v>
+        <v>-0.0002788523120900361</v>
       </c>
       <c r="D86">
-        <v>-0.06096869217352483</v>
+        <v>-0.02842364739711002</v>
       </c>
       <c r="E86">
-        <v>0.0241292376875842</v>
+        <v>-0.002903400568871866</v>
       </c>
       <c r="F86">
-        <v>0.09147365583434289</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01796544784807321</v>
+      </c>
+      <c r="G86">
+        <v>0.1008326605848338</v>
+      </c>
+      <c r="H86">
+        <v>0.05623187321593348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0142137365253859</v>
+        <v>0.02326344350329711</v>
       </c>
       <c r="C87">
-        <v>0.03622756394906065</v>
+        <v>-0.00281912186639041</v>
       </c>
       <c r="D87">
-        <v>0.04046163158208205</v>
+        <v>0.01184299955253412</v>
       </c>
       <c r="E87">
-        <v>-0.03171432824163994</v>
+        <v>-0.001211890180338646</v>
       </c>
       <c r="F87">
-        <v>0.09326949438225234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.006452674490439034</v>
+      </c>
+      <c r="G87">
+        <v>0.1000345019442409</v>
+      </c>
+      <c r="H87">
+        <v>-0.01178150590904424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01285419825453096</v>
+        <v>0.03769771435873412</v>
       </c>
       <c r="C88">
-        <v>0.01528707549967706</v>
+        <v>0.007093202223038277</v>
       </c>
       <c r="D88">
-        <v>0.003531718773765657</v>
+        <v>0.007556651144383764</v>
       </c>
       <c r="E88">
-        <v>0.01968056098715043</v>
+        <v>0.004247833932906815</v>
       </c>
       <c r="F88">
-        <v>0.02201891173365359</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01197462893917329</v>
+      </c>
+      <c r="G88">
+        <v>0.002614012926259363</v>
+      </c>
+      <c r="H88">
+        <v>0.02216228177502112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08108674747516677</v>
+        <v>0.1366445717515323</v>
       </c>
       <c r="C89">
-        <v>0.1212231572808653</v>
+        <v>-0.01137566967205854</v>
       </c>
       <c r="D89">
-        <v>0.244652104797631</v>
+        <v>0.3695805729250743</v>
       </c>
       <c r="E89">
-        <v>-0.2208339970614603</v>
+        <v>-0.0833639276963892</v>
       </c>
       <c r="F89">
-        <v>0.03778186268307617</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1315008742245738</v>
+      </c>
+      <c r="G89">
+        <v>-0.00233068559789929</v>
+      </c>
+      <c r="H89">
+        <v>0.09825981221196263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08040711880759842</v>
+        <v>0.1016001586313467</v>
       </c>
       <c r="C90">
-        <v>0.1186172781993887</v>
+        <v>-0.005423247900322229</v>
       </c>
       <c r="D90">
-        <v>0.2588320534681656</v>
+        <v>0.3102799637108351</v>
       </c>
       <c r="E90">
-        <v>-0.1641507669917312</v>
+        <v>-0.05132422709334875</v>
       </c>
       <c r="F90">
-        <v>0.02044314070744699</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1219266793606912</v>
+      </c>
+      <c r="G90">
+        <v>-0.03434046900263061</v>
+      </c>
+      <c r="H90">
+        <v>0.06256208790476923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2787459865042822</v>
+        <v>0.2527952979175963</v>
       </c>
       <c r="C91">
-        <v>0.08492364949741589</v>
+        <v>-0.1442840205129526</v>
       </c>
       <c r="D91">
-        <v>-0.08781795555656108</v>
+        <v>-0.08914861899551221</v>
       </c>
       <c r="E91">
-        <v>0.05329259180551113</v>
+        <v>-0.02133381642349841</v>
       </c>
       <c r="F91">
-        <v>-0.3018023994401747</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1229836797050102</v>
+      </c>
+      <c r="G91">
+        <v>-0.2475803369372348</v>
+      </c>
+      <c r="H91">
+        <v>0.05738923785534811</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1232707064227983</v>
+        <v>0.1668910933911927</v>
       </c>
       <c r="C92">
-        <v>0.09807516957708111</v>
+        <v>-0.081601928642681</v>
       </c>
       <c r="D92">
-        <v>0.280034830946526</v>
+        <v>0.315179014649895</v>
       </c>
       <c r="E92">
-        <v>-0.1539551578130056</v>
+        <v>-0.03743083967590426</v>
       </c>
       <c r="F92">
-        <v>-0.002015623444166999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1232557476914589</v>
+      </c>
+      <c r="G92">
+        <v>-0.09636117979719391</v>
+      </c>
+      <c r="H92">
+        <v>0.1671811048611507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07612082131679618</v>
+        <v>0.1271192703626446</v>
       </c>
       <c r="C93">
-        <v>0.1064009713344494</v>
+        <v>-0.01661269973819492</v>
       </c>
       <c r="D93">
-        <v>0.3248810102402901</v>
+        <v>0.3572738794517215</v>
       </c>
       <c r="E93">
-        <v>-0.2214824084256081</v>
+        <v>-0.0701329625472335</v>
       </c>
       <c r="F93">
-        <v>-0.007907240623906313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1842838006134492</v>
+      </c>
+      <c r="G93">
+        <v>-0.05047747403029571</v>
+      </c>
+      <c r="H93">
+        <v>-0.001149482511235596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2501601771450908</v>
+        <v>0.2639211502827968</v>
       </c>
       <c r="C94">
-        <v>0.1059393067758166</v>
+        <v>-0.1284484319797741</v>
       </c>
       <c r="D94">
-        <v>-0.008230528462568899</v>
+        <v>-0.03065524573356392</v>
       </c>
       <c r="E94">
-        <v>0.01825489308788345</v>
+        <v>-0.04040025227220271</v>
       </c>
       <c r="F94">
-        <v>-0.3500712248433638</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.125856883523883</v>
+      </c>
+      <c r="G94">
+        <v>-0.2821119925995694</v>
+      </c>
+      <c r="H94">
+        <v>0.04255039353259187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1499955367757407</v>
+        <v>0.1041168735073356</v>
       </c>
       <c r="C95">
-        <v>-0.007115188827351277</v>
+        <v>-0.0642846114480892</v>
       </c>
       <c r="D95">
-        <v>-0.1578142020126499</v>
+        <v>-0.06192217799371235</v>
       </c>
       <c r="E95">
-        <v>0.004396079123889969</v>
+        <v>-0.08492122539231156</v>
       </c>
       <c r="F95">
-        <v>0.03715708473716157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02678351421846427</v>
+      </c>
+      <c r="G95">
+        <v>0.07372222381496356</v>
+      </c>
+      <c r="H95">
+        <v>0.1330798401758803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1927051439396439</v>
+        <v>0.1842910249310157</v>
       </c>
       <c r="C98">
-        <v>0.0711677513690581</v>
+        <v>-0.09364328045928764</v>
       </c>
       <c r="D98">
-        <v>0.02948102691622852</v>
+        <v>0.0346121374822838</v>
       </c>
       <c r="E98">
-        <v>-0.1066679607449749</v>
+        <v>-0.07078852998204115</v>
       </c>
       <c r="F98">
-        <v>0.1120420834468853</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.002733754356436924</v>
+      </c>
+      <c r="G98">
+        <v>0.1993586042693184</v>
+      </c>
+      <c r="H98">
+        <v>-0.3896548895303039</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>9.584956353497333e-05</v>
+        <v>0.01384086925687181</v>
       </c>
       <c r="C101">
-        <v>0.0196384811057348</v>
+        <v>-0.001481969137710223</v>
       </c>
       <c r="D101">
-        <v>-0.05834730849212222</v>
+        <v>-0.01551664936893725</v>
       </c>
       <c r="E101">
-        <v>0.0486786616842013</v>
+        <v>0.004122302913909812</v>
       </c>
       <c r="F101">
-        <v>0.05014020233612992</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03912100052112674</v>
+      </c>
+      <c r="G101">
+        <v>0.07919860940475891</v>
+      </c>
+      <c r="H101">
+        <v>0.123607892829482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08970525732476962</v>
+        <v>0.1091548113422788</v>
       </c>
       <c r="C102">
-        <v>0.0269695964299317</v>
+        <v>-0.05058983613362315</v>
       </c>
       <c r="D102">
-        <v>-0.04314295932396992</v>
+        <v>-0.03825976771951414</v>
       </c>
       <c r="E102">
-        <v>0.04906763194112097</v>
+        <v>-0.0005920071935940138</v>
       </c>
       <c r="F102">
-        <v>-0.104162377255099</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06412113415766516</v>
+      </c>
+      <c r="G102">
+        <v>-0.1140582799792549</v>
+      </c>
+      <c r="H102">
+        <v>0.01006046245427082</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0185616036581598</v>
+        <v>0.02328887998107445</v>
       </c>
       <c r="C103">
-        <v>0.00818849172026425</v>
+        <v>-0.01171312052368336</v>
       </c>
       <c r="D103">
-        <v>-0.001656114072377665</v>
+        <v>-0.006947460809781428</v>
       </c>
       <c r="E103">
-        <v>0.005249256067351326</v>
+        <v>0.007223979695004737</v>
       </c>
       <c r="F103">
-        <v>-0.03126379467389383</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01488064838828551</v>
+      </c>
+      <c r="G103">
+        <v>-0.01370612894114833</v>
+      </c>
+      <c r="H103">
+        <v>0.01613032079854332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3726045869402335</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9086512608298822</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.009818019518562432</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.008074841480867871</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.154439228409708</v>
+      </c>
+      <c r="G104">
+        <v>-0.05009008448426169</v>
+      </c>
+      <c r="H104">
+        <v>0.0009338780481514786</v>
       </c>
     </row>
   </sheetData>
